--- a/testes/resultado_inferência_NGE-reg_linear_novo.xlsx
+++ b/testes/resultado_inferência_NGE-reg_linear_novo.xlsx
@@ -626,7 +626,7 @@
         <v>98</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="J4" t="n">
         <v>87223</v>
